--- a/docs/assets/disciplinas/LOM3214.xlsx
+++ b/docs/assets/disciplinas/LOM3214.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Estudo do ponto de vista físico-químico das propriedades das superfícies e interfaces.</t>
+    <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>519033 - Carlos Yujiro Shigue</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Superfícies e interfaces. Termodinâmica de superfícies. Ligação química superficial. Propriedades elétricas de superfícies. Técnicas de caracterização de superfícies.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,16 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Definição de superfície e interface. Classificação de interfaces. Definição de superfície limpa, colisão de moléculas gasosas com superfície e tempo de residência. Dispersão. Cristalografia: fases cristalinas e índices de Müller; notação cristalográfica de superfícies.
-Reconstrução superficial. Estrutura dos adsorbatos. Exemplos.
-Termodinâmica de Superfícies: funções termodinâmicas de superfícies; energia superficial; entalpia de adsorção; quimi e fisissorção; medida de entalpia de adsorção por calorimetria; isotermas de adsorção; superfícies heterogêneas e Isotermas de adsorção.
-Ligação química superficial: caráter da ligação química superficial; análise qualitativa da interação de orbitais em superfícies; dinâmica de superfícies; velocidade de adsorção e dessorção; mobilidade de adsorbatos.
-Propriedades elétricas de superfície: potencial do elétron superficial; carga espacial superficial; função trabalho; densidade de estados de elétrons superficiais e nível de Fermi; efeito fotoelétrico; efeito tunelamento quântico; efeito Auger; importância do nível de Fermi para a adsorção em metais.
-Difração de elétrons de baixa energia (LEED). Microscopia de tunelamento. 
-Fundamentos de espectroscopia de fotoemissão: espectroscopia de fotoemissão aplicada a sistemas condutores; espectroscopia de fotoemissão aplicada a sistemas isolantes.
-Espectroscopia Auger.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -113,33 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas expositivas, seminários e práticas ministradas em laboratório.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média ponderada de duas provas escritas, trabalhos e relatórios: P1, P2 e TR. Conceito Final = (P1 + 2P2 + TR)/4</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>ADAMSON, A. W., Physical Chemistry of Surfaces; John Wiley &amp; Sons; Nova Iorque, EUA, 1990.
-HOFFMAN, R., Solid and Surfaces: A Chemist's View of Bonding in Extended Structures, VCH Publishers, Nova Iorque, EUA, 1988.
-SAMORJAI, G. A., Introduction to Surface Chemistry and Catalysis, John Wiley &amp; Sons, Nova Iorque, EUA, 1994.
-MASEL, R. I., Principles of Adsorption and Reaction on Solid Surfaces, John Wiley &amp; Sons, Nova Iorque, EUA, 1996.
-ATTARD, G.; BARNES, C., Surfaces, Oxford Science Publications, Oxford, Reino Unido, 1998.
-CHEN, C.J., Introduction to Scanning Tunneling Microscopy, Oxford University Press, Oxford, Reino Unido, 1993. 
-VICKERMAN, J.C. Surface Analysis - The Principal Techniques, John Wiley &amp; Sons, Chichester, Reino Unido, 1997.
-HOLLAS, J. M. Modern Spectroscopy, Wiley, 1992.
-WATTS, J. F.; WOLSTENHOLME, J. An Introduction to Surface Analysis by XPS and AES, Wiley, Nova Iorque, 2003.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -502,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,106 +603,98 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
